--- a/data/T31R10_data.xlsx
+++ b/data/T31R10_data.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtstevens/Documents/New Mexico/USGS/Research/Sage GLO/Sage_GLO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323F6FAA-D1E0-4625-B83E-CC82FE6082DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274FB1DB-A788-564F-AE07-19D8EE08E4BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
+    <workbookView xWindow="3620" yWindow="2540" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="1881" sheetId="1" r:id="rId1"/>
+    <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1881notes" sheetId="2" r:id="rId2"/>
-    <sheet name="1942" sheetId="3" r:id="rId3"/>
-    <sheet name="1942notes" sheetId="4" r:id="rId4"/>
+    <sheet name="1940Survey" sheetId="3" r:id="rId3"/>
+    <sheet name="1940notes" sheetId="4" r:id="rId4"/>
+    <sheet name="1880Metadata" sheetId="5" r:id="rId5"/>
+    <sheet name="1940Metadata" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -349,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="126">
   <si>
     <t>Survey_type</t>
   </si>
@@ -734,12 +735,18 @@
       <t xml:space="preserve">valuable only for grazing. </t>
     </r>
   </si>
+  <si>
+    <t>Actually surveyed in 1881; tab reads 1880 for consistency in the data processing R script</t>
+  </si>
+  <si>
+    <t>Kara please confirm this was actually sampled in 1940? Tab said 1942..</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,6 +796,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -810,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -827,6 +841,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,23 +1175,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6D7804-334B-4CBA-BF92-F3C71DC34C17}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C73"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1263,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1279,7 +1292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1308,7 +1321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1337,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1424,7 +1437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1453,7 +1466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1482,7 +1495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1511,7 +1524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1540,7 +1553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1569,7 +1582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1598,7 +1611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1627,7 +1640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1656,7 +1669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1685,7 +1698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1714,7 +1727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1743,7 +1756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1772,7 +1785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1801,7 +1814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1830,7 +1843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1888,7 +1901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1917,7 +1930,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1946,7 +1959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1975,7 +1988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2004,7 +2017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2033,7 +2046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2062,7 +2075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2091,7 +2104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2120,7 +2133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2149,7 +2162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2178,7 +2191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2207,7 +2220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2236,7 +2249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2265,7 +2278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2294,7 +2307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2323,7 +2336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2352,7 +2365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2381,7 +2394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2410,7 +2423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2439,7 +2452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2468,7 +2481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2497,7 +2510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2526,7 +2539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2555,7 +2568,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2584,7 +2597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -2613,7 +2626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -2642,7 +2655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -2671,7 +2684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -2700,7 +2713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -2729,7 +2742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -2758,7 +2771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -2787,7 +2800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -2816,7 +2829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2845,7 +2858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2874,7 +2887,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -2903,7 +2916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -2932,7 +2945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2961,7 +2974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2990,7 +3003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -3019,7 +3032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -3048,7 +3061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -3077,7 +3090,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -3106,7 +3119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -3135,7 +3148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -3164,7 +3177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -3193,7 +3206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -3222,7 +3235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -3251,7 +3264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -3280,7 +3293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -3309,7 +3322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -3358,17 +3371,17 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="125.77734375" customWidth="1"/>
+    <col min="1" max="1" width="125.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -3382,25 +3395,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B13FF1-D214-4719-A9E0-EA5D78BDBD26}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G69" sqref="G69:G73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="36.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" customWidth="1"/>
-    <col min="12" max="12" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3474,7 +3487,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3503,7 +3516,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3532,7 +3545,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3561,7 +3574,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3590,7 +3603,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3619,7 +3632,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3648,7 +3661,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3677,7 +3690,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3706,7 +3719,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3735,7 +3748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3764,7 +3777,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3793,7 +3806,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3822,7 +3835,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3851,7 +3864,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3880,7 +3893,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3909,7 +3922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3938,7 +3951,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3967,7 +3980,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3996,7 +4009,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4025,7 +4038,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4054,7 +4067,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4083,7 +4096,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4112,7 +4125,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4141,7 +4154,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -4170,7 +4183,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -4199,7 +4212,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4228,7 +4241,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -4257,7 +4270,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -4286,7 +4299,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -4315,7 +4328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4344,7 +4357,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -4373,7 +4386,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -4402,7 +4415,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -4431,7 +4444,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -4460,7 +4473,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -4489,7 +4502,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -4518,7 +4531,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -4547,7 +4560,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -4576,7 +4589,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -4605,7 +4618,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -4634,7 +4647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -4663,7 +4676,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -4692,7 +4705,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -4721,7 +4734,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -4750,7 +4763,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -4779,7 +4792,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -4808,7 +4821,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -4837,7 +4850,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -4866,7 +4879,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -4895,7 +4908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -4924,7 +4937,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -4953,7 +4966,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -4982,7 +4995,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -5011,7 +5024,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -5040,7 +5053,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -5069,7 +5082,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -5098,7 +5111,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -5127,7 +5140,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -5156,7 +5169,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -5185,7 +5198,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -5214,7 +5227,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -5243,7 +5256,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -5272,7 +5285,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -5301,7 +5314,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -5330,7 +5343,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -5359,7 +5372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -5388,7 +5401,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -5417,7 +5430,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -5446,7 +5459,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -5475,7 +5488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -5504,7 +5517,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -5533,7 +5546,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -5578,16 +5591,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02D51A3-DCE9-406B-A154-99B4615B894D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="102.5546875" customWidth="1"/>
+    <col min="1" max="1" width="102.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -5596,4 +5609,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14567E03-20CB-AD4F-A162-EF66905A0E8E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BFEA85-1EEA-CC48-9232-48284EDE3560}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/T31R10_data.xlsx
+++ b/data/T31R10_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtstevens/Documents/New Mexico/USGS/Research/Sage GLO/Sage_GLO/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274FB1DB-A788-564F-AE07-19D8EE08E4BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE284BA8-461B-4E40-8C5B-747226D5D687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="2540" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -1177,19 +1177,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -3371,17 +3371,17 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="125.83203125" customWidth="1"/>
+    <col min="1" max="1" width="125.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -3399,21 +3399,21 @@
       <selection activeCell="G69" sqref="G69:G73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="3.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="36.83203125" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" customWidth="1"/>
-    <col min="12" max="12" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -5595,12 +5595,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="102.5" customWidth="1"/>
+    <col min="1" max="1" width="102.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -5617,9 +5617,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>124</v>
       </c>
@@ -5637,9 +5637,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>125</v>
       </c>

--- a/data/T31R10_data.xlsx
+++ b/data/T31R10_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE284BA8-461B-4E40-8C5B-747226D5D687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBBDC10-8BEC-4847-9866-A618EF911FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
+    <workbookView xWindow="-25170" yWindow="-5175" windowWidth="20970" windowHeight="13350" activeTab="5" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="125">
   <si>
     <t>Survey_type</t>
   </si>
@@ -737,9 +737,6 @@
   </si>
   <si>
     <t>Actually surveyed in 1881; tab reads 1880 for consistency in the data processing R script</t>
-  </si>
-  <si>
-    <t>Kara please confirm this was actually sampled in 1940? Tab said 1942..</t>
   </si>
 </sst>
 </file>
@@ -3395,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B13FF1-D214-4719-A9E0-EA5D78BDBD26}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69:G73"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5633,18 +5630,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BFEA85-1EEA-CC48-9232-48284EDE3560}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/T31R10_data.xlsx
+++ b/data/T31R10_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBBDC10-8BEC-4847-9866-A618EF911FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5499D58E-A6B2-44E3-8922-693FC39FD709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25170" yWindow="-5175" windowWidth="20970" windowHeight="13350" activeTab="5" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
+    <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="139">
   <si>
     <t>Survey_type</t>
   </si>
@@ -448,24 +448,6 @@
     <t>31-10-06-W</t>
   </si>
   <si>
-    <t>32-10-31-S</t>
-  </si>
-  <si>
-    <t>32-10-32-S</t>
-  </si>
-  <si>
-    <t>32-10-33-S</t>
-  </si>
-  <si>
-    <t>32-10-34-S</t>
-  </si>
-  <si>
-    <t>32-10-35-S</t>
-  </si>
-  <si>
-    <t>32-10-36-S</t>
-  </si>
-  <si>
     <t>31-10-36-W</t>
   </si>
   <si>
@@ -652,9 +634,6 @@
     <t>absent</t>
   </si>
   <si>
-    <t>August 11 1881</t>
-  </si>
-  <si>
     <t>August 12 1881</t>
   </si>
   <si>
@@ -677,24 +656,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kara notes: This surveyor in the past has made clear mentions of sage brush and seems to be consistent on his surveys, probably "trust" this guy the most </t>
-  </si>
-  <si>
-    <t>31-11-31-W</t>
-  </si>
-  <si>
-    <t>31-11-30-W</t>
-  </si>
-  <si>
-    <t>31-11-19-W</t>
-  </si>
-  <si>
-    <t>31-11-18-W</t>
-  </si>
-  <si>
-    <t>31-11-7-W</t>
-  </si>
-  <si>
-    <t>31-11-6-W</t>
   </si>
   <si>
     <t>CWD</t>
@@ -737,6 +698,87 @@
   </si>
   <si>
     <t>Actually surveyed in 1881; tab reads 1880 for consistency in the data processing R script</t>
+  </si>
+  <si>
+    <t>August 4 1881</t>
+  </si>
+  <si>
+    <t>Land rolling, bunch and gramma grass</t>
+  </si>
+  <si>
+    <t>31-10-36-S</t>
+  </si>
+  <si>
+    <t>30-10-1881</t>
+  </si>
+  <si>
+    <t>August 4-August 10 1881</t>
+  </si>
+  <si>
+    <t>31-10-35-S</t>
+  </si>
+  <si>
+    <t>31-10-34-S</t>
+  </si>
+  <si>
+    <t>31-10-33-S</t>
+  </si>
+  <si>
+    <t>31-10-32-S</t>
+  </si>
+  <si>
+    <t>Land rolling, gramma and bunch grass</t>
+  </si>
+  <si>
+    <t>31-10-31-S</t>
+  </si>
+  <si>
+    <t>June 14 - August 19 1940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land, slightly rolling gradual E slope. Undergrowth, small sage. </t>
+  </si>
+  <si>
+    <t>30-10-1940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land slightly rolling, gradual E slope. Undergrowth, small sage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land slightly rolling E slope. Undergrowth, small sage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land, nearly level. Undergrowth, some sage. </t>
+  </si>
+  <si>
+    <t>Spanish dagger = yucca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land rolling, slightly rolling E slope. Undergrowth some sage and Spanish daggers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land, gradual E slope. Undergrowth, sage and spanish daggers. </t>
+  </si>
+  <si>
+    <t>July 19-August 7 1940</t>
+  </si>
+  <si>
+    <t>Land rolling. Undergrowth small sage</t>
+  </si>
+  <si>
+    <t>31-09-1940</t>
+  </si>
+  <si>
+    <t>Land slightly rolling. Undergrowth very small sage.</t>
+  </si>
+  <si>
+    <t>Land slightly rolling. Undergrowth small sage</t>
+  </si>
+  <si>
+    <t>Land slightly rolling. Undergrowth some small sage</t>
+  </si>
+  <si>
+    <t>Land rolling. Undergrowth low sage</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6D7804-334B-4CBA-BF92-F3C71DC34C17}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1268,19 +1312,19 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -1297,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -1326,19 +1370,19 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -1355,25 +1399,25 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -1384,19 +1428,19 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -1413,25 +1457,25 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -1442,19 +1486,19 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -1471,25 +1515,25 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
         <v>97</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -1500,19 +1544,19 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1529,25 +1573,25 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
         <v>99</v>
-      </c>
-      <c r="G11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
@@ -1558,19 +1602,19 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -1587,25 +1631,25 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
@@ -1616,19 +1660,19 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
@@ -1645,19 +1689,19 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -1674,19 +1718,19 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -1703,19 +1747,19 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -1732,19 +1776,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
@@ -1761,19 +1805,19 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -1790,19 +1834,19 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
@@ -1819,19 +1863,19 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
@@ -1848,19 +1892,19 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
@@ -1877,19 +1921,19 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
@@ -1906,25 +1950,25 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1935,19 +1979,19 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
@@ -1964,19 +2008,19 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
@@ -1993,19 +2037,19 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
@@ -2022,19 +2066,19 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I28" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
@@ -2051,19 +2095,19 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
@@ -2080,19 +2124,19 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
@@ -2109,19 +2153,19 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
@@ -2138,19 +2182,19 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
@@ -2167,19 +2211,19 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
@@ -2196,19 +2240,19 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
@@ -2225,25 +2269,25 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
       </c>
       <c r="L35" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2254,19 +2298,19 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
@@ -2283,19 +2327,19 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s">
         <v>23</v>
@@ -2312,19 +2356,19 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I38" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J38" t="s">
         <v>23</v>
@@ -2341,19 +2385,19 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
@@ -2370,25 +2414,25 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" t="s">
         <v>98</v>
-      </c>
-      <c r="I40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J40" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2399,19 +2443,19 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I41" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
@@ -2428,19 +2472,19 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G42" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I42" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
@@ -2457,19 +2501,19 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
@@ -2486,19 +2530,19 @@
         <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I44" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
@@ -2515,19 +2559,19 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I45" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
@@ -2544,25 +2588,25 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
       </c>
       <c r="L46" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2573,19 +2617,19 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I47" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
@@ -2602,19 +2646,19 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G48" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I48" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
@@ -2631,19 +2675,19 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I49" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
@@ -2660,19 +2704,19 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G50" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I50" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
@@ -2689,19 +2733,19 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
         <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I51" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
@@ -2718,19 +2762,19 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G52" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
@@ -2747,19 +2791,19 @@
         <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
         <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s">
         <v>23</v>
@@ -2776,19 +2820,19 @@
         <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
         <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G54" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
@@ -2805,19 +2849,19 @@
         <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
         <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
@@ -2834,19 +2878,19 @@
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
         <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G56" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
@@ -2863,25 +2907,25 @@
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I57" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J57" t="s">
         <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2892,19 +2936,19 @@
         <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I58" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J58" t="s">
         <v>23</v>
@@ -2921,19 +2965,19 @@
         <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
         <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G59" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I59" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J59" t="s">
         <v>23</v>
@@ -2950,19 +2994,19 @@
         <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D60" t="s">
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G60" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s">
         <v>23</v>
@@ -2979,19 +3023,19 @@
         <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G61" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I61" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J61" t="s">
         <v>23</v>
@@ -3008,19 +3052,19 @@
         <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G62" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J62" t="s">
         <v>23</v>
@@ -3037,19 +3081,19 @@
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
         <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J63" t="s">
         <v>23</v>
@@ -3066,25 +3110,25 @@
         <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G64" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J64" t="s">
         <v>23</v>
       </c>
       <c r="L64" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3095,19 +3139,19 @@
         <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D65" t="s">
         <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G65" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J65" t="s">
         <v>23</v>
@@ -3124,19 +3168,19 @@
         <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="D66" t="s">
         <v>25</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G66" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J66" t="s">
         <v>23</v>
@@ -3153,19 +3197,19 @@
         <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G67" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J67" t="s">
         <v>23</v>
@@ -3179,28 +3223,28 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
         <v>25</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G68" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I68" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="J68" t="s">
         <v>23</v>
       </c>
       <c r="L68" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3208,28 +3252,28 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
         <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J69" t="s">
         <v>23</v>
       </c>
       <c r="L69" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3237,28 +3281,28 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J70" t="s">
         <v>23</v>
       </c>
       <c r="L70" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3266,28 +3310,28 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D71" t="s">
         <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I71" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J71" t="s">
         <v>23</v>
       </c>
       <c r="L71" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3295,28 +3339,28 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
         <v>25</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G72" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I72" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J72" t="s">
         <v>23</v>
       </c>
       <c r="L72" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3324,31 +3368,34 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
         <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G73" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I73" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J73" t="s">
         <v>23</v>
       </c>
       <c r="L73" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U67">
+    <sortCondition ref="C55"/>
+  </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D1">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
@@ -3375,12 +3422,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3392,8 +3439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B13FF1-D214-4719-A9E0-EA5D78BDBD26}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3489,28 +3536,28 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -3518,28 +3565,28 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -3547,28 +3594,28 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
@@ -3576,28 +3623,28 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -3605,28 +3652,28 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
@@ -3634,28 +3681,28 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -3663,28 +3710,28 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
@@ -3692,28 +3739,28 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -3721,28 +3768,28 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
@@ -3750,28 +3797,28 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
@@ -3779,28 +3826,28 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
@@ -3808,28 +3855,28 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
@@ -3837,28 +3884,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
@@ -3866,28 +3913,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
@@ -3895,28 +3942,28 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3924,28 +3971,28 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3953,28 +4000,28 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3982,28 +4029,28 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -4011,28 +4058,28 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -4040,28 +4087,28 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -4069,28 +4116,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -4098,28 +4145,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J23" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -4127,28 +4174,28 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J24" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -4156,28 +4203,28 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -4185,28 +4232,28 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J26" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -4214,28 +4261,28 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J27" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -4243,28 +4290,28 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -4272,28 +4319,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -4301,28 +4348,28 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -4330,28 +4377,28 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J31" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -4359,28 +4406,28 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J32" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -4388,28 +4435,28 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I33" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J33" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -4417,28 +4464,28 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J34" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -4446,28 +4493,28 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I35" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -4475,28 +4522,28 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G36" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J36" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -4504,28 +4551,28 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I37" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J37" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -4533,28 +4580,28 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I38" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -4562,28 +4609,28 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G39" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I39" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J39" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -4591,28 +4638,28 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J40" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -4620,28 +4667,28 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I41" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J41" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -4649,28 +4696,28 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G42" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I42" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -4678,28 +4725,28 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I43" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J43" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -4707,28 +4754,28 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G44" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I44" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J44" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -4736,28 +4783,28 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I45" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J45" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -4765,28 +4812,28 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G46" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I46" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J46" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -4794,28 +4841,28 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G47" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I47" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -4823,28 +4870,28 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I48" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J48" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L48" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -4852,28 +4899,28 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G49" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I49" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J49" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -4881,28 +4928,28 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I50" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J50" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L50" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -4910,28 +4957,28 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
         <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I51" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J51" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -4939,28 +4986,28 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I52" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L52" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -4968,28 +5015,28 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
         <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I53" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J53" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L53" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -4997,28 +5044,28 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
         <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G54" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I54" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J54" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -5026,7 +5073,7 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
         <v>79</v>
@@ -5035,19 +5082,19 @@
         <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I55" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J55" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L55" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -5055,28 +5102,28 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
         <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G56" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I56" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J56" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -5084,28 +5131,28 @@
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G57" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I57" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J57" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -5113,28 +5160,28 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I58" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J58" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L58" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -5142,28 +5189,28 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D59" t="s">
         <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G59" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I59" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J59" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L59" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -5171,28 +5218,28 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I60" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J60" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L60" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -5200,28 +5247,28 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G61" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I61" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J61" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L61" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -5229,28 +5276,28 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I62" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J62" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L62" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -5258,28 +5305,31 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D63" t="s">
         <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G63" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I63" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J63" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="K63" t="s">
+        <v>129</v>
       </c>
       <c r="L63" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -5287,28 +5337,28 @@
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G64" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I64" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J64" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L64" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -5316,28 +5366,28 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D65" t="s">
         <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G65" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I65" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J65" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L65" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -5345,28 +5395,28 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
         <v>117</v>
       </c>
-      <c r="C66" t="s">
-        <v>89</v>
-      </c>
       <c r="D66" t="s">
         <v>25</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G66" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I66" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J66" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L66" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -5374,28 +5424,28 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I67" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J67" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L67" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -5403,28 +5453,28 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
         <v>25</v>
       </c>
       <c r="E68" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G68" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I68" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="J68" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L68" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -5432,28 +5482,28 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
         <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G69" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I69" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J69" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L69" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -5461,28 +5511,28 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
       </c>
       <c r="E70" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G70" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I70" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="J70" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L70" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -5490,28 +5540,28 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
         <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G71" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I71" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J71" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -5519,28 +5569,28 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
         <v>25</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G72" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I72" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="J72" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L72" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -5548,31 +5598,34 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
         <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I73" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J73" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L73" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U61">
+    <sortCondition ref="C49"/>
+  </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D1">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -5599,7 +5652,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5618,7 +5671,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5630,7 +5683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BFEA85-1EEA-CC48-9232-48284EDE3560}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/data/T31R10_data.xlsx
+++ b/data/T31R10_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ellis\research\Taos\BLM_RGDN_monument\GLO\Sage_GLO\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE2AFB-7D28-421B-B183-2F0570CF0177}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25F71BB-C29F-455A-8FAD-35FD7BC232DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1881notes" sheetId="2" r:id="rId2"/>
     <sheet name="1940Survey" sheetId="3" r:id="rId3"/>
-    <sheet name="2004Survey" sheetId="7" r:id="rId4"/>
+    <sheet name="2019Survey" sheetId="7" r:id="rId4"/>
     <sheet name="1940notes" sheetId="4" r:id="rId5"/>
     <sheet name="1880Metadata" sheetId="5" r:id="rId6"/>
     <sheet name="1940Metadata" sheetId="6" r:id="rId7"/>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="141">
   <si>
     <t>Survey_type</t>
   </si>
@@ -5646,10 +5646,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2E13E7-C7E8-459B-8D00-AC0EF56B70A9}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5677,7 +5677,7 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5688,7 +5688,7 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5699,7 +5699,7 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5710,7 +5710,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5721,7 +5721,7 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5732,7 +5732,7 @@
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5743,7 +5743,7 @@
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5754,7 +5754,7 @@
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5765,7 +5765,7 @@
         <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5776,7 +5776,7 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5798,7 +5798,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5831,7 +5831,7 @@
         <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5853,7 +5853,7 @@
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5864,7 +5864,7 @@
         <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5875,7 +5875,7 @@
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5886,7 +5886,7 @@
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5897,7 +5897,7 @@
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5908,7 +5908,7 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5930,7 +5930,7 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5941,7 +5941,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5952,7 +5952,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5963,7 +5963,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5974,7 +5974,7 @@
         <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5985,7 +5985,7 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5996,7 +5996,7 @@
         <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6073,7 +6073,7 @@
         <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6172,7 +6172,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6194,7 +6194,7 @@
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6205,7 +6205,7 @@
         <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6216,7 +6216,7 @@
         <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6290,7 +6290,7 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
         <v>107</v>
@@ -6301,7 +6301,7 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
         <v>107</v>
@@ -6312,7 +6312,7 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
         <v>107</v>
@@ -6323,7 +6323,7 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
         <v>107</v>
@@ -6334,10 +6334,10 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6345,10 +6345,10 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6356,10 +6356,10 @@
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6367,10 +6367,10 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6378,7 +6378,7 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
         <v>107</v>
@@ -6389,7 +6389,7 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>107</v>
@@ -6400,7 +6400,7 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
         <v>107</v>
@@ -6411,7 +6411,7 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
         <v>107</v>
@@ -6422,7 +6422,7 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
         <v>107</v>
@@ -6433,7 +6433,7 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
         <v>107</v>
@@ -6444,7 +6444,7 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
         <v>107</v>
@@ -6455,15 +6455,26 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
         <v>139</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
-    <sortCondition ref="B2:B73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C74">
+    <sortCondition ref="B2:B74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/T31R10_data.xlsx
+++ b/data/T31R10_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25F71BB-C29F-455A-8FAD-35FD7BC232DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C34EB5-E732-4C7A-B5D1-A61B2164E4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6D7804-334B-4CBA-BF92-F3C71DC34C17}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD73"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,7 +2421,7 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -5648,8 +5648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2E13E7-C7E8-459B-8D00-AC0EF56B70A9}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5919,7 +5919,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6040,7 +6040,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6051,7 +6051,7 @@
         <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6095,7 +6095,7 @@
         <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6161,7 +6161,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6315,7 +6315,7 @@
         <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6326,7 +6326,7 @@
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/T31R10_data.xlsx
+++ b/data/T31R10_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C34EB5-E732-4C7A-B5D1-A61B2164E4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BC6DED-7125-4B9F-9195-872A31FF43BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AFFBDAF8-53BC-496D-B436-835E07264DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F629C8C1-A570-4D5C-99A6-26984B4323FC}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F629C8C1-A570-4D5C-99A6-26984B4323FC}">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{444C55D9-14FA-4328-BD64-69E66D6D2A5A}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{444C55D9-14FA-4328-BD64-69E66D6D2A5A}">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{D79DD531-A55D-4232-A998-886E3B2DCF23}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{D79DD531-A55D-4232-A998-886E3B2DCF23}">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{FBEFE284-DD84-4BDF-A5C8-D00ABB98C8D4}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{FBEFE284-DD84-4BDF-A5C8-D00ABB98C8D4}">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{2EA1130A-9F0C-4DC9-8591-8A070CBA8D5F}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{2EA1130A-9F0C-4DC9-8591-8A070CBA8D5F}">
       <text>
         <r>
           <rPr>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="141">
   <si>
     <t>Survey_type</t>
   </si>
@@ -1219,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6D7804-334B-4CBA-BF92-F3C71DC34C17}">
-  <dimension ref="A1:AD73"/>
+  <dimension ref="A1:AC73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,14 +1230,14 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,60 +1247,58 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
@@ -1309,9 +1307,8 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1322,25 +1319,25 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
         <v>92</v>
       </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
       <c r="I2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1351,25 +1348,25 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
         <v>92</v>
       </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
       <c r="I3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
       </c>
       <c r="L3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1380,25 +1377,25 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
         <v>92</v>
       </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
       <c r="I4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1409,25 +1406,25 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
         <v>92</v>
       </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
       <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1438,25 +1435,25 @@
         <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
         <v>92</v>
       </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
       <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1467,25 +1464,25 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
         <v>92</v>
       </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
       <c r="I7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1496,25 +1493,25 @@
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
         <v>92</v>
       </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
       <c r="I8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1525,25 +1522,25 @@
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
         <v>92</v>
       </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
       <c r="I9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1554,25 +1551,25 @@
         <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
         <v>92</v>
       </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
       <c r="I10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1583,25 +1580,25 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
         <v>92</v>
       </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
       <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>99</v>
       </c>
       <c r="L11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1612,25 +1609,25 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
         <v>92</v>
       </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
       <c r="I12" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1641,25 +1638,25 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
         <v>92</v>
       </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
       <c r="I13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1670,25 +1667,25 @@
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
         <v>92</v>
       </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
       <c r="I14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1699,25 +1696,25 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
         <v>92</v>
       </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
       <c r="I15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1728,22 +1725,22 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
         <v>92</v>
       </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
       <c r="I16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1757,22 +1754,22 @@
         <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
         <v>92</v>
       </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
       <c r="I17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1786,22 +1783,22 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
         <v>92</v>
       </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
       <c r="I18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1815,22 +1812,22 @@
         <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
         <v>92</v>
       </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
       <c r="I19" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1844,22 +1841,22 @@
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
         <v>92</v>
       </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
       <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1873,22 +1870,22 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
         <v>92</v>
       </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
       <c r="I21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1902,22 +1899,22 @@
         <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
         <v>92</v>
       </c>
+      <c r="H22" t="s">
+        <v>91</v>
+      </c>
       <c r="I22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1931,22 +1928,22 @@
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
         <v>92</v>
       </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
       <c r="I23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1960,22 +1957,22 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
         <v>92</v>
       </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
       <c r="I24" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1989,22 +1986,22 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
         <v>92</v>
       </c>
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
       <c r="I25" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2018,22 +2015,22 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
         <v>92</v>
       </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
       <c r="I26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2047,22 +2044,22 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
         <v>92</v>
       </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
       <c r="I27" t="s">
-        <v>91</v>
-      </c>
-      <c r="J27" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2076,22 +2073,22 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
         <v>92</v>
       </c>
+      <c r="H28" t="s">
+        <v>91</v>
+      </c>
       <c r="I28" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2105,22 +2102,22 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
         <v>92</v>
       </c>
+      <c r="H29" t="s">
+        <v>91</v>
+      </c>
       <c r="I29" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2134,22 +2131,22 @@
         <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" t="s">
         <v>92</v>
       </c>
+      <c r="H30" t="s">
+        <v>91</v>
+      </c>
       <c r="I30" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2163,22 +2160,22 @@
         <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
         <v>92</v>
       </c>
+      <c r="H31" t="s">
+        <v>91</v>
+      </c>
       <c r="I31" t="s">
-        <v>91</v>
-      </c>
-      <c r="J31" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2192,22 +2189,22 @@
         <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" t="s">
         <v>92</v>
       </c>
+      <c r="H32" t="s">
+        <v>91</v>
+      </c>
       <c r="I32" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K32" t="s">
+        <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2221,22 +2218,22 @@
         <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
         <v>92</v>
       </c>
+      <c r="H33" t="s">
+        <v>91</v>
+      </c>
       <c r="I33" t="s">
-        <v>91</v>
-      </c>
-      <c r="J33" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K33" t="s">
+        <v>24</v>
       </c>
       <c r="L33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2250,22 +2247,22 @@
         <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" t="s">
         <v>92</v>
       </c>
+      <c r="H34" t="s">
+        <v>91</v>
+      </c>
       <c r="I34" t="s">
-        <v>91</v>
-      </c>
-      <c r="J34" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K34" t="s">
+        <v>24</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2279,22 +2276,22 @@
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" t="s">
         <v>92</v>
       </c>
+      <c r="H35" t="s">
+        <v>91</v>
+      </c>
       <c r="I35" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2308,22 +2305,22 @@
         <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" t="s">
         <v>92</v>
       </c>
+      <c r="H36" t="s">
+        <v>91</v>
+      </c>
       <c r="I36" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2337,22 +2334,22 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s">
         <v>92</v>
       </c>
+      <c r="H37" t="s">
+        <v>91</v>
+      </c>
       <c r="I37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J37" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
       </c>
       <c r="L37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2366,22 +2363,22 @@
         <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" t="s">
         <v>92</v>
       </c>
+      <c r="H38" t="s">
+        <v>91</v>
+      </c>
       <c r="I38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J38" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
       </c>
       <c r="L38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2395,22 +2392,22 @@
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
         <v>92</v>
       </c>
+      <c r="H39" t="s">
+        <v>91</v>
+      </c>
       <c r="I39" t="s">
-        <v>91</v>
-      </c>
-      <c r="J39" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K39" t="s">
+        <v>24</v>
       </c>
       <c r="L39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2424,22 +2421,22 @@
         <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" t="s">
         <v>92</v>
       </c>
+      <c r="H40" t="s">
+        <v>91</v>
+      </c>
       <c r="I40" t="s">
-        <v>91</v>
-      </c>
-      <c r="J40" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K40" t="s">
+        <v>98</v>
       </c>
       <c r="L40" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2453,22 +2450,22 @@
         <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
         <v>92</v>
       </c>
+      <c r="H41" t="s">
+        <v>91</v>
+      </c>
       <c r="I41" t="s">
-        <v>91</v>
-      </c>
-      <c r="J41" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K41" t="s">
+        <v>24</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2482,22 +2479,22 @@
         <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" t="s">
         <v>92</v>
       </c>
+      <c r="H42" t="s">
+        <v>91</v>
+      </c>
       <c r="I42" t="s">
-        <v>91</v>
-      </c>
-      <c r="J42" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K42" t="s">
+        <v>24</v>
       </c>
       <c r="L42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2511,22 +2508,22 @@
         <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
         <v>92</v>
       </c>
+      <c r="H43" t="s">
+        <v>91</v>
+      </c>
       <c r="I43" t="s">
-        <v>91</v>
-      </c>
-      <c r="J43" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K43" t="s">
+        <v>24</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2540,22 +2537,22 @@
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s">
-        <v>93</v>
-      </c>
-      <c r="G44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" t="s">
         <v>92</v>
       </c>
+      <c r="H44" t="s">
+        <v>91</v>
+      </c>
       <c r="I44" t="s">
-        <v>91</v>
-      </c>
-      <c r="J44" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K44" t="s">
+        <v>24</v>
       </c>
       <c r="L44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2569,22 +2566,22 @@
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
         <v>92</v>
       </c>
+      <c r="H45" t="s">
+        <v>91</v>
+      </c>
       <c r="I45" t="s">
-        <v>91</v>
-      </c>
-      <c r="J45" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K45" t="s">
+        <v>24</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2598,22 +2595,22 @@
         <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" t="s">
         <v>92</v>
       </c>
+      <c r="H46" t="s">
+        <v>91</v>
+      </c>
       <c r="I46" t="s">
-        <v>91</v>
-      </c>
-      <c r="J46" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K46" t="s">
+        <v>24</v>
       </c>
       <c r="L46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2627,22 +2624,22 @@
         <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" t="s">
         <v>92</v>
       </c>
+      <c r="H47" t="s">
+        <v>91</v>
+      </c>
       <c r="I47" t="s">
-        <v>91</v>
-      </c>
-      <c r="J47" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K47" t="s">
+        <v>24</v>
       </c>
       <c r="L47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2656,22 +2653,22 @@
         <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" t="s">
-        <v>93</v>
-      </c>
-      <c r="G48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" t="s">
         <v>92</v>
       </c>
+      <c r="H48" t="s">
+        <v>91</v>
+      </c>
       <c r="I48" t="s">
-        <v>91</v>
-      </c>
-      <c r="J48" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K48" t="s">
+        <v>24</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2685,22 +2682,22 @@
         <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" t="s">
         <v>92</v>
       </c>
+      <c r="H49" t="s">
+        <v>91</v>
+      </c>
       <c r="I49" t="s">
-        <v>91</v>
-      </c>
-      <c r="J49" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K49" t="s">
+        <v>24</v>
       </c>
       <c r="L49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2714,22 +2711,22 @@
         <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" t="s">
         <v>92</v>
       </c>
+      <c r="H50" t="s">
+        <v>91</v>
+      </c>
       <c r="I50" t="s">
-        <v>91</v>
-      </c>
-      <c r="J50" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
       </c>
       <c r="L50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2743,22 +2740,22 @@
         <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" t="s">
         <v>92</v>
       </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
       <c r="I51" t="s">
-        <v>91</v>
-      </c>
-      <c r="J51" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K51" t="s">
+        <v>24</v>
       </c>
       <c r="L51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2772,22 +2769,22 @@
         <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" t="s">
         <v>92</v>
       </c>
+      <c r="H52" t="s">
+        <v>91</v>
+      </c>
       <c r="I52" t="s">
-        <v>91</v>
-      </c>
-      <c r="J52" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K52" t="s">
+        <v>24</v>
       </c>
       <c r="L52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2801,22 +2798,22 @@
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" t="s">
-        <v>93</v>
-      </c>
-      <c r="G53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" t="s">
         <v>92</v>
       </c>
+      <c r="H53" t="s">
+        <v>91</v>
+      </c>
       <c r="I53" t="s">
-        <v>91</v>
-      </c>
-      <c r="J53" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K53" t="s">
+        <v>24</v>
       </c>
       <c r="L53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2830,22 +2827,22 @@
         <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" t="s">
-        <v>93</v>
-      </c>
-      <c r="G54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" t="s">
         <v>92</v>
       </c>
+      <c r="H54" t="s">
+        <v>91</v>
+      </c>
       <c r="I54" t="s">
-        <v>91</v>
-      </c>
-      <c r="J54" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K54" t="s">
+        <v>24</v>
       </c>
       <c r="L54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2859,22 +2856,22 @@
         <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" t="s">
         <v>92</v>
       </c>
+      <c r="H55" t="s">
+        <v>91</v>
+      </c>
       <c r="I55" t="s">
-        <v>91</v>
-      </c>
-      <c r="J55" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K55" t="s">
+        <v>24</v>
       </c>
       <c r="L55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2888,22 +2885,22 @@
         <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" t="s">
-        <v>93</v>
-      </c>
-      <c r="G56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" t="s">
         <v>92</v>
       </c>
+      <c r="H56" t="s">
+        <v>91</v>
+      </c>
       <c r="I56" t="s">
-        <v>91</v>
-      </c>
-      <c r="J56" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K56" t="s">
+        <v>24</v>
       </c>
       <c r="L56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2917,22 +2914,22 @@
         <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" t="s">
-        <v>93</v>
-      </c>
-      <c r="G57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" t="s">
         <v>92</v>
       </c>
+      <c r="H57" t="s">
+        <v>91</v>
+      </c>
       <c r="I57" t="s">
-        <v>91</v>
-      </c>
-      <c r="J57" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K57" t="s">
+        <v>24</v>
       </c>
       <c r="L57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2946,22 +2943,22 @@
         <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" t="s">
         <v>92</v>
       </c>
+      <c r="H58" t="s">
+        <v>91</v>
+      </c>
       <c r="I58" t="s">
-        <v>91</v>
-      </c>
-      <c r="J58" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K58" t="s">
+        <v>24</v>
       </c>
       <c r="L58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2975,22 +2972,22 @@
         <v>79</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" t="s">
-        <v>93</v>
-      </c>
-      <c r="G59" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" t="s">
         <v>92</v>
       </c>
+      <c r="H59" t="s">
+        <v>91</v>
+      </c>
       <c r="I59" t="s">
-        <v>91</v>
-      </c>
-      <c r="J59" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K59" t="s">
+        <v>24</v>
       </c>
       <c r="L59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3004,22 +3001,22 @@
         <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" t="s">
-        <v>93</v>
-      </c>
-      <c r="G60" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" t="s">
         <v>92</v>
       </c>
+      <c r="H60" t="s">
+        <v>91</v>
+      </c>
       <c r="I60" t="s">
-        <v>91</v>
-      </c>
-      <c r="J60" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K60" t="s">
+        <v>24</v>
       </c>
       <c r="L60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3033,22 +3030,22 @@
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" t="s">
-        <v>93</v>
-      </c>
-      <c r="G61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" t="s">
         <v>92</v>
       </c>
+      <c r="H61" t="s">
+        <v>91</v>
+      </c>
       <c r="I61" t="s">
-        <v>91</v>
-      </c>
-      <c r="J61" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K61" t="s">
+        <v>24</v>
       </c>
       <c r="L61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3062,22 +3059,22 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" t="s">
-        <v>93</v>
-      </c>
-      <c r="G62" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" t="s">
         <v>92</v>
       </c>
+      <c r="H62" t="s">
+        <v>91</v>
+      </c>
       <c r="I62" t="s">
-        <v>91</v>
-      </c>
-      <c r="J62" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K62" t="s">
+        <v>24</v>
       </c>
       <c r="L62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3091,22 +3088,22 @@
         <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" t="s">
-        <v>93</v>
-      </c>
-      <c r="G63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F63" t="s">
         <v>92</v>
       </c>
+      <c r="H63" t="s">
+        <v>91</v>
+      </c>
       <c r="I63" t="s">
-        <v>91</v>
-      </c>
-      <c r="J63" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K63" t="s">
+        <v>24</v>
       </c>
       <c r="L63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3120,22 +3117,22 @@
         <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" t="s">
-        <v>93</v>
-      </c>
-      <c r="G64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" t="s">
         <v>92</v>
       </c>
+      <c r="H64" t="s">
+        <v>91</v>
+      </c>
       <c r="I64" t="s">
-        <v>91</v>
-      </c>
-      <c r="J64" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K64" t="s">
+        <v>24</v>
       </c>
       <c r="L64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3149,22 +3146,22 @@
         <v>54</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" t="s">
-        <v>93</v>
-      </c>
-      <c r="G65" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" t="s">
         <v>92</v>
       </c>
+      <c r="H65" t="s">
+        <v>91</v>
+      </c>
       <c r="I65" t="s">
-        <v>91</v>
-      </c>
-      <c r="J65" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K65" t="s">
+        <v>24</v>
       </c>
       <c r="L65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3178,22 +3175,22 @@
         <v>43</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" t="s">
-        <v>93</v>
-      </c>
-      <c r="G66" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66" t="s">
         <v>92</v>
       </c>
+      <c r="H66" t="s">
+        <v>91</v>
+      </c>
       <c r="I66" t="s">
-        <v>91</v>
-      </c>
-      <c r="J66" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K66" t="s">
+        <v>24</v>
       </c>
       <c r="L66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3207,22 +3204,22 @@
         <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" t="s">
-        <v>93</v>
-      </c>
-      <c r="G67" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" t="s">
         <v>92</v>
       </c>
+      <c r="H67" t="s">
+        <v>91</v>
+      </c>
       <c r="I67" t="s">
-        <v>91</v>
-      </c>
-      <c r="J67" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K67" t="s">
+        <v>24</v>
       </c>
       <c r="L67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3236,22 +3233,22 @@
         <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" t="s">
-        <v>93</v>
-      </c>
-      <c r="G68" t="s">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="F68" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" t="s">
+        <v>121</v>
       </c>
       <c r="I68" t="s">
-        <v>121</v>
-      </c>
-      <c r="J68" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K68" t="s">
+        <v>116</v>
       </c>
       <c r="L68" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3265,22 +3262,22 @@
         <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" t="s">
-        <v>93</v>
-      </c>
-      <c r="G69" t="s">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="F69" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" t="s">
+        <v>113</v>
       </c>
       <c r="I69" t="s">
-        <v>113</v>
-      </c>
-      <c r="J69" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K69" t="s">
+        <v>116</v>
       </c>
       <c r="L69" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3294,22 +3291,22 @@
         <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" t="s">
-        <v>93</v>
-      </c>
-      <c r="G70" t="s">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="F70" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" t="s">
+        <v>113</v>
       </c>
       <c r="I70" t="s">
-        <v>113</v>
-      </c>
-      <c r="J70" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K70" t="s">
+        <v>116</v>
       </c>
       <c r="L70" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3323,22 +3320,22 @@
         <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" t="s">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="F71" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" t="s">
+        <v>113</v>
       </c>
       <c r="I71" t="s">
-        <v>113</v>
-      </c>
-      <c r="J71" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K71" t="s">
+        <v>116</v>
       </c>
       <c r="L71" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3352,22 +3349,22 @@
         <v>117</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" t="s">
-        <v>93</v>
-      </c>
-      <c r="G72" t="s">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="F72" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" t="s">
+        <v>113</v>
       </c>
       <c r="I72" t="s">
-        <v>113</v>
-      </c>
-      <c r="J72" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K72" t="s">
+        <v>116</v>
       </c>
       <c r="L72" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3381,32 +3378,32 @@
         <v>114</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" t="s">
-        <v>93</v>
-      </c>
-      <c r="G73" t="s">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="F73" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" t="s">
+        <v>113</v>
       </c>
       <c r="I73" t="s">
-        <v>113</v>
-      </c>
-      <c r="J73" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="K73" t="s">
+        <v>112</v>
       </c>
       <c r="L73" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U67">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T67">
     <sortCondition ref="C55"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="D1">
+  <conditionalFormatting sqref="L1">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(D1))&gt;0</formula>
+      <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5648,8 +5645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2E13E7-C7E8-459B-8D00-AC0EF56B70A9}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
